--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -396,15 +396,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,9 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,70 +754,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="16"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="E3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="20" t="s">
         <v>14</v>
       </c>
     </row>
@@ -920,14 +920,16 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,15 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -741,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,70 +745,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -984,10 +975,10 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1002,8 +993,10 @@
       <c r="C25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>CONTROL DE CAMBIOS Y REQUERIMIENTOS DE SRCS</t>
+  </si>
+  <si>
+    <t>NOTA: Aquí se encuentran los cambios y requerimientos que se han solicitado del 12 al 17 de Noviembre de 2014. También agregué unos cambios que no se han solicitado, pero que consideré importantes para un mejor desarrollo del proceso.</t>
+  </si>
+  <si>
+    <t>Se debe actualizar el campo "opciones_modulo" de la tabla "org_modulo" con el valor "3"</t>
   </si>
   <si>
     <r>
@@ -142,11 +148,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 23/11/2014</t>
+      <t xml:space="preserve"> 01/12/2014</t>
     </r>
-  </si>
-  <si>
-    <t>NOTA: Aquí se encuentran los cambios y requerimientos que se han solicitado del 12 al 17 de Noviembre de 2014. También agregué unos cambios que no se han solicitado, pero que consideré importantes para un mejor desarrollo del proceso.</t>
   </si>
 </sst>
 </file>
@@ -732,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +762,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -786,7 +789,7 @@
     </row>
     <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -862,7 +865,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
@@ -870,7 +873,9 @@
         <v>10</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -126,7 +131,13 @@
     <t>NOTA: Aquí se encuentran los cambios y requerimientos que se han solicitado del 12 al 17 de Noviembre de 2014. También agregué unos cambios que no se han solicitado, pero que consideré importantes para un mejor desarrollo del proceso.</t>
   </si>
   <si>
-    <t>Se debe actualizar el campo "opciones_modulo" de la tabla "org_modulo" con el valor "3"</t>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>Actualización</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
   </si>
   <si>
     <r>
@@ -148,8 +159,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 01/12/2014</t>
+      <t xml:space="preserve"> 03/12/2014</t>
     </r>
+  </si>
+  <si>
+    <t>¿No quieren que les aparezcan antes de los 6 meses?</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -238,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -262,12 +279,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -278,6 +346,26 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -289,43 +377,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -336,9 +389,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -348,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,41 +444,74 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,7 +573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +608,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,318 +817,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E28"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B9" s="40">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="40">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="40">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="40">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="40">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="40">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="40">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="40">
         <v>9</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="40">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="B19" s="40">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="40">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="40">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="40">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="40">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="40">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="40">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="40">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="40">
+        <v>19</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="40">
         <v>20</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B2:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -453,16 +448,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -474,43 +490,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,7 +815,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,8 +829,8 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" s="22"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="22"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -847,52 +842,52 @@
         <v>31</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -915,7 +910,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="40">
+      <c r="B9" s="21">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -933,7 +928,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+      <c r="B10" s="21">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -951,7 +946,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="40">
+      <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -971,7 +966,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+      <c r="B12" s="21">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -989,7 +984,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="40">
+      <c r="B13" s="21">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1005,7 +1000,7 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="40">
+      <c r="B14" s="21">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1025,7 +1020,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="40">
+      <c r="B15" s="21">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1043,7 +1038,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="40">
+      <c r="B16" s="21">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1061,7 +1056,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="40">
+      <c r="B17" s="21">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1079,7 +1074,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="40">
+      <c r="B18" s="21">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1097,7 +1092,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="40">
+      <c r="B19" s="21">
         <v>11</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1113,7 +1108,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="40">
+      <c r="B20" s="21">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1127,7 +1122,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="40">
+      <c r="B21" s="21">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1141,7 +1136,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="40">
+      <c r="B22" s="21">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1155,7 +1150,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="40">
+      <c r="B23" s="21">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1169,7 +1164,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="40">
+      <c r="B24" s="21">
         <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -1187,7 +1182,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="40">
+      <c r="B25" s="21">
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1205,7 +1200,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="40">
+      <c r="B26" s="21">
         <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1223,7 +1218,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="40">
+      <c r="B27" s="21">
         <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1241,7 +1236,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="40">
+      <c r="B28" s="21">
         <v>20</v>
       </c>
       <c r="C28" s="9" t="s">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -394,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,15 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -568,7 +564,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,66 +824,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
@@ -910,7 +906,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -928,7 +924,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -946,7 +942,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -966,7 +962,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -984,7 +980,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1000,7 +996,7 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1020,7 +1016,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1038,7 +1034,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1056,7 +1052,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1074,7 +1070,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1092,51 +1088,61 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>11</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>12</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="21">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="18">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1150,7 +1156,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="21">
+      <c r="B23" s="18">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1164,7 +1170,7 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -1182,7 +1188,7 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1200,7 +1206,7 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
+      <c r="B26" s="18">
         <v>18</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1218,7 +1224,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="21">
+      <c r="B27" s="18">
         <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1236,7 +1242,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <v>20</v>
       </c>
       <c r="C28" s="9" t="s">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Nuevo</t>
+  </si>
+  <si>
+    <t>¿No quieren que les aparezcan antes de los 6 meses?</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <r>
@@ -159,14 +165,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 03/12/2014</t>
+      <t xml:space="preserve"> 11/12/2014</t>
     </r>
   </si>
   <si>
-    <t>¿No quieren que les aparezcan antes de los 6 meses?</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>Reporte de Capacitaciones debe incluir los siguientes datos: DUI del empleado capacitado, Nombre del empleado, género del empleado, representación, Nombre del Lugar de Trabajo al que pertenece, fecha en la que fue capacitado, Total de personas.</t>
   </si>
 </sst>
 </file>
@@ -808,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +842,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="24"/>
     </row>
@@ -887,7 +890,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>7</v>
@@ -1141,26 +1144,30 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="51" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>14</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
@@ -1169,30 +1176,26 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <v>16</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>10</v>
@@ -1205,39 +1208,39 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <v>18</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>19</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1245,18 +1248,36 @@
       <c r="B28" s="18">
         <v>20</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
+        <v>21</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>40</v>
+      <c r="G29" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -170,6 +165,9 @@
   </si>
   <si>
     <t>Reporte de Capacitaciones debe incluir los siguientes datos: DUI del empleado capacitado, Nombre del empleado, género del empleado, representación, Nombre del Lugar de Trabajo al que pertenece, fecha en la que fue capacitado, Total de personas.</t>
+  </si>
+  <si>
+    <t>El reporte de Verificaciones debe incluir los siguientes datos: (Técnicos), Nombre y ubicación(oficina geográfica y sección) del técnico y total de verificaciones realizadas</t>
   </si>
 </sst>
 </file>
@@ -402,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,7 +603,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G29"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +824,7 @@
     <col min="3" max="3" width="55.140625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
@@ -992,7 +993,9 @@
       <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="38">
+        <v>0.75</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>37</v>
       </c>
@@ -1180,40 +1183,44 @@
       <c r="B24" s="18">
         <v>16</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <v>17</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <v>18</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>10</v>
@@ -1226,39 +1233,39 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B27" s="18">
         <v>19</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B28" s="18">
         <v>20</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1266,17 +1273,35 @@
       <c r="B29" s="18">
         <v>21</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <v>22</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -400,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,9 +422,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -448,6 +450,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,9 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,10 +840,10 @@
         <v>34</v>
       </c>
       <c r="C2" s="33"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="23" t="s">
         <v>41</v>
       </c>
@@ -850,20 +852,20 @@
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="25"/>
       <c r="G3" s="26"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
     </row>
@@ -890,27 +892,27 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -928,7 +930,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -946,7 +948,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -966,7 +968,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -984,25 +986,25 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>5</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18">
         <v>0.75</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1022,7 +1024,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1040,7 +1042,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1058,7 +1060,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1076,10 +1078,10 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="18">
-        <v>10</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="17">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1094,10 +1096,10 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>11</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1112,10 +1114,10 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1130,10 +1132,10 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
-        <v>13</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="17">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1148,10 +1150,10 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1166,24 +1168,28 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>16</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1198,10 +1204,10 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>17</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1216,13 +1222,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>18</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1234,13 +1240,13 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>19</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1252,10 +1258,10 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>20</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1270,10 +1276,10 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>21</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1288,10 +1294,10 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>22</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="6" t="s">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-5.4.26-2\apache2\htdocs\sacso\requerimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -38,9 +33,6 @@
     <t>En la parte de “Programar capacitación”, este paso lo debe poder hacer un rol de Técnico Educador.</t>
   </si>
   <si>
-    <t>En la parte de “Aprobar comité”, este paso se debe llamar "Aprobar Acreditaciones".</t>
-  </si>
-  <si>
     <t xml:space="preserve">En la parte de “Aprobar comité (Aprobar Acreditaciones)”, en el asistente "Datos del comité", se debe poder definir el Cargo de cada miembro del comité (Vocal, Presidente, Tesorero). </t>
   </si>
   <si>
@@ -140,10 +132,13 @@
     <t>Nuevo</t>
   </si>
   <si>
-    <t>¿No quieren que les aparezcan antes de los 6 meses?</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Reporte de Capacitaciones debe incluir los siguientes datos: DUI del empleado capacitado, Nombre del empleado, género del empleado, representación, Nombre del Lugar de Trabajo al que pertenece, fecha en la que fue capacitado, Total de personas.</t>
+  </si>
+  <si>
+    <t>El reporte de Verificaciones debe incluir los siguientes datos: (Técnicos), Nombre y ubicación(oficina geográfica y sección) del técnico y total de verificaciones realizadas</t>
   </si>
   <si>
     <r>
@@ -165,14 +160,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 11/12/2014</t>
+      <t xml:space="preserve"> 12/12/2014</t>
     </r>
   </si>
   <si>
-    <t>Reporte de Capacitaciones debe incluir los siguientes datos: DUI del empleado capacitado, Nombre del empleado, género del empleado, representación, Nombre del Lugar de Trabajo al que pertenece, fecha en la que fue capacitado, Total de personas.</t>
-  </si>
-  <si>
-    <t>El reporte de Verificaciones debe incluir los siguientes datos: (Técnicos), Nombre y ubicación(oficina geográfica y sección) del técnico y total de verificaciones realizadas</t>
+    <t>En la parte de “Aprobar comité”, este paso se debe llamar "Emitir Acreditaciones".</t>
+  </si>
+  <si>
+    <t>Queda pendiente</t>
+  </si>
+  <si>
+    <t>Se realizará después de haberse llevado a cabo las capacitaciones por cuestión de poder ver todo el flujo del proceso</t>
+  </si>
+  <si>
+    <t>Reportes estadísticos en base a un archivo de excel llamado "TABLA VERIFICACIONES MAYO 2014"</t>
   </si>
 </sst>
 </file>
@@ -570,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G30"/>
+  <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,11 +838,11 @@
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="23" t="s">
@@ -853,7 +854,7 @@
       <c r="B3" s="34"/>
       <c r="C3" s="35"/>
       <c r="D3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="25"/>
@@ -863,7 +864,7 @@
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="27"/>
@@ -877,7 +878,7 @@
     </row>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -893,22 +894,22 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -919,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -937,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -955,16 +956,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
@@ -975,13 +976,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -993,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="18">
         <v>0.75</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -1008,19 +1009,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
@@ -1028,16 +1029,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1046,16 +1047,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1064,16 +1065,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1082,16 +1083,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1100,16 +1101,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1118,16 +1119,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1136,16 +1137,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1154,16 +1155,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1172,16 +1173,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -1190,16 +1191,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -1208,16 +1209,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -1226,16 +1227,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -1244,16 +1245,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -1262,16 +1263,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1280,36 +1281,54 @@
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="17">
         <v>22</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
+        <v>23</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -406,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,9 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -451,9 +448,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,6 +504,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,89 +840,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -931,7 +940,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -949,7 +958,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -969,7 +978,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -987,25 +996,25 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1025,7 +1034,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1043,7 +1052,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1061,7 +1070,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1079,7 +1088,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1097,7 +1106,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1115,7 +1124,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1133,7 +1142,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1151,7 +1160,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1169,7 +1178,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1187,7 +1196,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1205,7 +1214,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1223,13 +1232,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>18</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1241,13 +1250,13 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>19</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1259,7 +1268,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1277,7 +1286,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1295,7 +1304,7 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>22</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1315,20 +1324,22 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>23</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\www\srcs\requerimientos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -33,6 +38,9 @@
     <t>En la parte de “Programar capacitación”, este paso lo debe poder hacer un rol de Técnico Educador.</t>
   </si>
   <si>
+    <t>En la parte de “Aprobar comité”, este paso se debe llamar "Aprobar Acreditaciones".</t>
+  </si>
+  <si>
     <t xml:space="preserve">En la parte de “Aprobar comité (Aprobar Acreditaciones)”, en el asistente "Datos del comité", se debe poder definir el Cargo de cada miembro del comité (Vocal, Presidente, Tesorero). </t>
   </si>
   <si>
@@ -132,13 +140,10 @@
     <t>Nuevo</t>
   </si>
   <si>
+    <t>¿No quieren que les aparezcan antes de los 6 meses?</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Reporte de Capacitaciones debe incluir los siguientes datos: DUI del empleado capacitado, Nombre del empleado, género del empleado, representación, Nombre del Lugar de Trabajo al que pertenece, fecha en la que fue capacitado, Total de personas.</t>
-  </si>
-  <si>
-    <t>El reporte de Verificaciones debe incluir los siguientes datos: (Técnicos), Nombre y ubicación(oficina geográfica y sección) del técnico y total de verificaciones realizadas</t>
   </si>
   <si>
     <r>
@@ -160,20 +165,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12/12/2014</t>
+      <t xml:space="preserve"> 11/12/2014</t>
     </r>
   </si>
   <si>
-    <t>En la parte de “Aprobar comité”, este paso se debe llamar "Emitir Acreditaciones".</t>
-  </si>
-  <si>
-    <t>Queda pendiente</t>
-  </si>
-  <si>
-    <t>Se realizará después de haberse llevado a cabo las capacitaciones por cuestión de poder ver todo el flujo del proceso</t>
-  </si>
-  <si>
-    <t>Reportes estadísticos en base a un archivo de excel llamado "TABLA VERIFICACIONES MAYO 2014"</t>
+    <t>Reporte de Capacitaciones debe incluir los siguientes datos: DUI del empleado capacitado, Nombre del empleado, género del empleado, representación, Nombre del Lugar de Trabajo al que pertenece, fecha en la que fue capacitado, Total de personas.</t>
+  </si>
+  <si>
+    <t>El reporte de Verificaciones debe incluir los siguientes datos: (Técnicos), Nombre y ubicación(oficina geográfica y sección) del técnico y total de verificaciones realizadas</t>
   </si>
 </sst>
 </file>
@@ -406,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -448,6 +450,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,21 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G31"/>
+  <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,506 +830,486 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="B8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>13</v>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="17">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="B19" s="17">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="17">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="B22" s="17">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="17">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="17">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <v>19</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
+        <v>22</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>18</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
-        <v>19</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
-        <v>22</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
-        <v>23</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/requerimientos/Cambios Nov 2014.xlsx
+++ b/requerimientos/Cambios Nov 2014.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\www\srcs\requerimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Se menciona que en la parte de “Datos de la promoción”, hace falta una referencia  para indicar si al momento de hacer la Promoción del lugar de trabajo, el técnico educador indique si aplica una capacitación y posterior acreditación del mismo, se define que tal información se registrará en el dato de observaciones (Resultado de la visita)</t>
   </si>
@@ -405,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -450,9 +442,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,6 +498,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,7 +562,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +597,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,89 +822,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -930,7 +922,7 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -948,7 +940,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -968,7 +960,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -986,25 +978,25 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1024,7 +1016,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1042,7 +1034,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1060,7 +1052,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1078,7 +1070,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1096,7 +1088,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1114,7 +1106,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1132,7 +1124,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1150,7 +1142,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1168,7 +1160,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1186,7 +1178,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1204,7 +1196,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -1222,13 +1214,13 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>18</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1240,13 +1232,13 @@
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>19</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1258,7 +1250,7 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -1276,7 +1268,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1294,7 +1286,7 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>22</v>
       </c>
       <c r="C30" s="8" t="s">
